--- a/docs/PresentationSchema .xlsx
+++ b/docs/PresentationSchema .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/d.rudik/IdeaProjects/multi-datasource/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F50DF9AE-0395-CB49-BAE6-329000CBBD01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F0704B7-7A37-BF42-9B8B-87433359F462}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3900" yWindow="2200" windowWidth="28040" windowHeight="17440" xr2:uid="{64F8087B-8044-8043-9B04-0B10624BB4DC}"/>
   </bookViews>
@@ -440,7 +440,7 @@
   <dimension ref="B2:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
